--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9A7D3-DBEC-41BF-AF64-9352BF99A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52559300-763D-4268-BA9A-269B25CECC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1898,26 +1898,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>11.04</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>27100.598280479997</v>
+            <v>22266.675026999997</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>5312</v>
+            <v>3868</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>39505</v>
+            <v>37426</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2263,26 +2263,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>11.7</v>
+            <v>11.99</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>7847.3106971999996</v>
+            <v>8083.1516383200005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>2661</v>
+            <v>2673</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>14501</v>
+            <v>14507</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2596,7 +2596,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3502,10 +3502,10 @@
   <dimension ref="A1:W224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,7 +3752,7 @@
         <v>115672.52311107118</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="S8" t="s">
         <v>264</v>
@@ -4169,22 +4169,22 @@
       </c>
       <c r="E22">
         <f>+[14]Main!$H$2</f>
-        <v>11.04</v>
+        <v>9</v>
       </c>
       <c r="F22" s="9">
         <f>+[14]Main!$H$4</f>
-        <v>27100.598280479997</v>
+        <v>22266.675026999997</v>
       </c>
       <c r="G22" s="9">
         <f>+[14]Main!$H$6-[14]Main!$H$5</f>
-        <v>34193</v>
+        <v>33558</v>
       </c>
       <c r="H22" s="9">
         <f>+F22+G22</f>
-        <v>61293.598280480001</v>
+        <v>55824.675026999997</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="J22" s="12"/>
       <c r="S22" t="s">
@@ -4645,19 +4645,19 @@
       </c>
       <c r="E40">
         <f>+[22]Main!$I$2</f>
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="F40" s="9">
         <f>+[22]Main!$I$4</f>
-        <v>7847.3106971999996</v>
+        <v>8083.1516383200005</v>
       </c>
       <c r="G40" s="9">
         <f>+[22]Main!$I$6-[22]Main!$I$5</f>
-        <v>11840</v>
+        <v>11834</v>
       </c>
       <c r="H40" s="9">
         <f>+F40+G40</f>
-        <v>19687.310697199999</v>
+        <v>19917.15163832</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>247</v>
@@ -7479,19 +7479,19 @@
       </c>
       <c r="E7" s="9">
         <f>+[14]Main!$H$2</f>
-        <v>11.04</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9">
         <f>+[14]Main!$H$4</f>
-        <v>27100.598280479997</v>
+        <v>22266.675026999997</v>
       </c>
       <c r="G7" s="9">
         <f>+[14]Main!$H$6-[14]Main!$H$5</f>
-        <v>34193</v>
+        <v>33558</v>
       </c>
       <c r="H7" s="9">
         <f>+F7+G7</f>
-        <v>61293.598280480001</v>
+        <v>55824.675026999997</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>240</v>
@@ -7733,19 +7733,19 @@
       </c>
       <c r="E15" s="9">
         <f>+[22]Main!$I$2</f>
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="F15" s="9">
         <f>+[22]Main!$I$4</f>
-        <v>7847.3106971999996</v>
+        <v>8083.1516383200005</v>
       </c>
       <c r="G15" s="9">
         <f>+[22]Main!$I$6-[22]Main!$I$5</f>
-        <v>11840</v>
+        <v>11834</v>
       </c>
       <c r="H15" s="9">
         <f>+F15+G15</f>
-        <v>19687.310697199999</v>
+        <v>19917.15163832</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>247</v>

--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52559300-763D-4268-BA9A-269B25CECC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663EAF1-64A1-472A-BDB0-F20EFA9FC721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1917,7 +1917,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2282,7 +2282,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3502,10 +3502,10 @@
   <dimension ref="A1:W224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663EAF1-64A1-472A-BDB0-F20EFA9FC721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA65DB-3262-47B8-83E6-002D16EBDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
@@ -57,6 +57,8 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$J$112</definedName>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="477">
   <si>
     <t>Name</t>
   </si>
@@ -1976,26 +1978,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>44.47</v>
+            <v>42.79</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21788.353147870002</v>
+            <v>21236.062150490001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>804.78600000000006</v>
+            <v>1119.74</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>1278.462</v>
+            <v>1853.135</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2301,23 +2303,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="G2">
-            <v>18.07</v>
+          <cell r="I2">
+            <v>77.77</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="G4">
-            <v>6087.7829999999994</v>
+          <cell r="I4">
+            <v>6330.7175316000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>723.53200000000004</v>
+          <cell r="I5">
+            <v>311.50299999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6">
-            <v>2333.2600000000002</v>
+          <cell r="I6">
+            <v>3516.5740000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2340,23 +2342,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>183.2</v>
+          <cell r="G2">
+            <v>18.07</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="I4">
-            <v>5589.2865391999994</v>
+          <cell r="G4">
+            <v>6087.7829999999994</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>144</v>
+          <cell r="G5">
+            <v>723.53200000000004</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>6523</v>
+          <cell r="G6">
+            <v>2333.2600000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2380,22 +2382,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>33.76</v>
+            <v>183.2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>1615.1327198399999</v>
+            <v>5589.2865391999994</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>55.219000000000001</v>
+            <v>144</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>609.07600000000002</v>
+            <v>6523</v>
           </cell>
         </row>
       </sheetData>
@@ -2418,23 +2420,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="H2">
-            <v>15.92</v>
+          <cell r="I2">
+            <v>33.76</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>1615.1327198399999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>2183.3765784000002</v>
+          <cell r="I5">
+            <v>55.219000000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>149.55799999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>714.03099999999995</v>
+          <cell r="I6">
+            <v>609.07600000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2457,23 +2459,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>3.28</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>362.09960159999997</v>
+          <cell r="H2">
+            <v>15.92</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>4.45</v>
+          <cell r="H5">
+            <v>2183.3765784000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>53.811999999999998</v>
+          <cell r="H6">
+            <v>149.55799999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
+            <v>714.03099999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2492,33 +2494,31 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="H2">
-            <v>428.5</v>
+          <cell r="I2">
+            <v>3.28</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="H4">
-            <v>3184844.6176525</v>
+          <cell r="I4">
+            <v>362.09960159999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>79618</v>
+          <cell r="I5">
+            <v>4.45</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>42881</v>
+          <cell r="I6">
+            <v>53.811999999999998</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2533,31 +2533,33 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Ratios"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="G2">
-            <v>373.4</v>
+          <cell r="H2">
+            <v>428.5</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="G4">
-            <v>3396543.4839999997</v>
+          <cell r="H4">
+            <v>3184844.6176525</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>343463</v>
+          <cell r="H5">
+            <v>79618</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6">
-            <v>194367</v>
+          <cell r="H6">
+            <v>42881</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2615,23 +2617,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>2123</v>
+          <cell r="G2">
+            <v>373.4</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="I4">
-            <v>1785783.8434039999</v>
+          <cell r="G4">
+            <v>3396543.4839999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>331931</v>
+          <cell r="G5">
+            <v>343463</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>1089</v>
+          <cell r="G6">
+            <v>194367</v>
           </cell>
         </row>
       </sheetData>
@@ -2653,19 +2655,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>2123</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>1785783.8434039999</v>
+          </cell>
+        </row>
         <row r="5">
-          <cell r="H5">
-            <v>465223.39418400003</v>
+          <cell r="I5">
+            <v>331931</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>126824.66499999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>12233.047999999999</v>
+          <cell r="I6">
+            <v>1089</v>
           </cell>
         </row>
       </sheetData>
@@ -2687,24 +2694,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>12.11</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>1554.924</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="H5">
-            <v>1205.2</v>
+            <v>465223.39418400003</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>2509.8000000000002</v>
+            <v>126824.66499999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
+            <v>12233.047999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2727,23 +2729,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="J2">
-            <v>21.7</v>
+          <cell r="H2">
+            <v>12.11</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="J4">
-            <v>9701.7223876999997</v>
+          <cell r="H4">
+            <v>1554.924</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>4774.8999999999996</v>
+          <cell r="H5">
+            <v>1205.2</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>16.899999999999999</v>
+          <cell r="H6">
+            <v>2509.8000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2766,23 +2768,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="I2">
-            <v>50.5</v>
+          <cell r="J2">
+            <v>21.7</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="I4">
-            <v>22898.106829</v>
+          <cell r="J4">
+            <v>9701.7223876999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="I5">
-            <v>3322</v>
+          <cell r="J5">
+            <v>4774.8999999999996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="I6">
-            <v>7200</v>
+          <cell r="J6">
+            <v>16.899999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2806,22 +2808,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>30.44</v>
+            <v>50.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>17310.539416759999</v>
+            <v>22898.106829</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>1778</v>
+            <v>3322</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>2900</v>
+            <v>7200</v>
           </cell>
         </row>
       </sheetData>
@@ -2844,23 +2846,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="H2">
-            <v>41.21</v>
+          <cell r="I2">
+            <v>30.44</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="H4">
-            <v>8939.4565020800001</v>
+          <cell r="I4">
+            <v>17310.539416759999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>672.87819999999999</v>
+          <cell r="I5">
+            <v>1778</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>9.4335000000000004</v>
+          <cell r="I6">
+            <v>2900</v>
           </cell>
         </row>
       </sheetData>
@@ -2884,22 +2886,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>52.09</v>
+            <v>41.21</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>8540.3870921399994</v>
+            <v>8939.4565020800001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>492.94499999999999</v>
+            <v>672.87819999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>0</v>
+            <v>9.4335000000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -2923,26 +2925,63 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>1.2</v>
+            <v>52.09</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>112.4964828</v>
+            <v>8540.3870921399994</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>31.004000000000001</v>
+            <v>492.94499999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>176.57499999999999</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2">
+            <v>78.55</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>7215.2325581999994</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3147</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>4564</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2978,6 +3017,45 @@
         <row r="6">
           <cell r="H6">
             <v>4088433</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>112.4964828</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>31.004000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>176.57499999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -3118,12 +3196,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>155.19999999999999</v>
+            <v>148.77000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>39886.399999999994</v>
+            <v>38233.89</v>
           </cell>
         </row>
         <row r="5">
@@ -3137,7 +3215,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3505,7 +3583,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,11 +4003,11 @@
       </c>
       <c r="E15" s="1">
         <f>+[8]Main!$I$2</f>
-        <v>155.19999999999999</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="F15" s="9">
         <f>+[8]Main!$I$4</f>
-        <v>39886.399999999994</v>
+        <v>38233.89</v>
       </c>
       <c r="G15" s="9">
         <f>+[8]Main!$I$6-[8]Main!$I$5</f>
@@ -3937,7 +4015,7 @@
       </c>
       <c r="H15" s="9">
         <f>+F15+G15</f>
-        <v>39522.399999999994</v>
+        <v>37869.89</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>475</v>
@@ -4263,22 +4341,22 @@
       </c>
       <c r="E25">
         <f>+[16]Main!$G$2</f>
-        <v>44.47</v>
+        <v>42.79</v>
       </c>
       <c r="F25" s="9">
         <f>+[16]Main!$G$4</f>
-        <v>21788.353147870002</v>
+        <v>21236.062150490001</v>
       </c>
       <c r="G25" s="9">
         <f>+[16]Main!$G$6-[16]Main!$G$5</f>
-        <v>473.67599999999993</v>
+        <v>733.39499999999998</v>
       </c>
       <c r="H25" s="9">
         <f>+F25+G25</f>
-        <v>22262.029147870002</v>
+        <v>21969.457150490001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="S25" t="s">
         <v>268</v>
@@ -4766,7 +4844,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C46" t="s">
@@ -4775,10 +4853,25 @@
       <c r="D46" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
+      <c r="E46">
+        <f>+[23]Main!$I$2</f>
+        <v>77.77</v>
+      </c>
+      <c r="F46" s="9">
+        <f>+[23]Main!$I$4</f>
+        <v>6330.7175316000003</v>
+      </c>
+      <c r="G46" s="9">
+        <f>+[23]Main!$I$6-[23]Main!$I$5</f>
+        <v>3205.0709999999999</v>
+      </c>
+      <c r="H46" s="9">
+        <f>+F46+G46</f>
+        <v>9535.7885315999993</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -4833,15 +4926,15 @@
         <v>22</v>
       </c>
       <c r="E49">
-        <f>+[23]Main!$G$2</f>
+        <f>+[24]Main!$G$2</f>
         <v>18.07</v>
       </c>
       <c r="F49" s="9">
-        <f>+[23]Main!$G$4</f>
+        <f>+[24]Main!$G$4</f>
         <v>6087.7829999999994</v>
       </c>
       <c r="G49" s="9">
-        <f>+[23]Main!$G$6-[23]Main!$G$5</f>
+        <f>+[24]Main!$G$6-[24]Main!$G$5</f>
         <v>1609.7280000000001</v>
       </c>
       <c r="H49" s="9">
@@ -4984,15 +5077,15 @@
         <v>22</v>
       </c>
       <c r="E56">
-        <f>+[24]Main!$I$2</f>
+        <f>+[25]Main!$I$2</f>
         <v>183.2</v>
       </c>
       <c r="F56" s="9">
-        <f>+[24]Main!$I$4</f>
+        <f>+[25]Main!$I$4</f>
         <v>5589.2865391999994</v>
       </c>
       <c r="G56" s="9">
-        <f>+[24]Main!$I$6-[24]Main!$I$5</f>
+        <f>+[25]Main!$I$6-[25]Main!$I$5</f>
         <v>6379</v>
       </c>
       <c r="H56" s="9">
@@ -5897,15 +5990,15 @@
         <v>22</v>
       </c>
       <c r="E104">
-        <f>+[25]Main!$I$2</f>
+        <f>+[26]Main!$I$2</f>
         <v>33.76</v>
       </c>
       <c r="F104" s="9">
-        <f>+[25]Main!$I$4</f>
+        <f>+[26]Main!$I$4</f>
         <v>1615.1327198399999</v>
       </c>
       <c r="G104" s="9">
-        <f>+[25]Main!$I$6-[25]Main!$I$5</f>
+        <f>+[26]Main!$I$6-[26]Main!$I$5</f>
         <v>553.85699999999997</v>
       </c>
       <c r="H104" s="9">
@@ -5967,15 +6060,15 @@
         <v>153</v>
       </c>
       <c r="E107">
-        <f>+[26]Main!$H$2</f>
+        <f>+[27]Main!$H$2</f>
         <v>15.92</v>
       </c>
       <c r="F107" s="9">
-        <f>+[26]Main!$H$5*FX!C4</f>
+        <f>+[27]Main!$H$5*FX!C4</f>
         <v>2707.3869572160002</v>
       </c>
       <c r="G107" s="9">
-        <f>+([26]Main!$H$7-[26]Main!$H$6)*FX!C4</f>
+        <f>+([27]Main!$H$7-[27]Main!$H$6)*FX!C4</f>
         <v>699.94651999999996</v>
       </c>
       <c r="H107" s="9">
@@ -6022,15 +6115,15 @@
         <v>85</v>
       </c>
       <c r="E109">
-        <f>+[27]Main!$I$2</f>
+        <f>+[28]Main!$I$2</f>
         <v>3.28</v>
       </c>
       <c r="F109" s="9">
-        <f>+[27]Main!$I$4*FX!C3</f>
+        <f>+[28]Main!$I$4*FX!C3</f>
         <v>372.96258964800001</v>
       </c>
       <c r="G109" s="9">
-        <f>+([27]Main!$I$6-[27]Main!$I$5)*FX!C3</f>
+        <f>+([28]Main!$I$6-[28]Main!$I$5)*FX!C3</f>
         <v>50.842859999999995</v>
       </c>
       <c r="H109" s="9">
@@ -6687,6 +6780,7 @@
     <hyperlink ref="B104" r:id="rId25" xr:uid="{6D51229C-82B9-4B3B-8BCD-7E2D8D8D1697}"/>
     <hyperlink ref="B28" r:id="rId26" xr:uid="{725EC800-EAC4-45CD-844A-DCF52C2E49D3}"/>
     <hyperlink ref="B56" r:id="rId27" xr:uid="{34044582-871E-46CA-BEE4-6F8CE2992A03}"/>
+    <hyperlink ref="B46" r:id="rId28" xr:uid="{373784ED-2071-41B3-AA12-4F7A1FE107EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6777,15 +6871,15 @@
         <v>22</v>
       </c>
       <c r="E5" s="21">
-        <f>+[28]Main!$H$2</f>
+        <f>+[29]Main!$H$2</f>
         <v>428.5</v>
       </c>
       <c r="F5" s="21">
-        <f>+[28]Main!$H$4</f>
+        <f>+[29]Main!$H$4</f>
         <v>3184844.6176525</v>
       </c>
       <c r="G5" s="21">
-        <f>+[28]Main!$H$6-[28]Main!$H$5</f>
+        <f>+[29]Main!$H$6-[29]Main!$H$5</f>
         <v>-36737</v>
       </c>
       <c r="H5" s="21">
@@ -6813,15 +6907,15 @@
         <v>26</v>
       </c>
       <c r="E6" s="21">
-        <f>+[29]Main!$G$2</f>
+        <f>+[30]Main!$G$2</f>
         <v>373.4</v>
       </c>
       <c r="F6" s="21">
-        <f>+[29]Main!$G$4*FX!C6</f>
+        <f>+[30]Main!$G$4*FX!C6</f>
         <v>475516.08776000002</v>
       </c>
       <c r="G6" s="21">
-        <f>+([29]Main!$G$6-[29]Main!$G$5)*FX!C6</f>
+        <f>+([30]Main!$G$6-[30]Main!$G$5)*FX!C6</f>
         <v>-20873.440000000002</v>
       </c>
       <c r="H6" s="21">
@@ -6915,15 +7009,15 @@
         <v>26</v>
       </c>
       <c r="E9" s="21">
-        <f>+[30]Main!$I$2</f>
+        <f>+[31]Main!$I$2</f>
         <v>2123</v>
       </c>
       <c r="F9" s="21">
-        <f>+[31]Main!$H$5*FX!C6</f>
+        <f>+[32]Main!$H$5*FX!C6</f>
         <v>65131.275185760009</v>
       </c>
       <c r="G9" s="21">
-        <f>+([31]Main!$H$7-[31]Main!$H$6)*FX!C6</f>
+        <f>+([32]Main!$H$7-[32]Main!$H$6)*FX!C6</f>
         <v>-16042.82638</v>
       </c>
       <c r="H9" s="21">
@@ -6984,11 +7078,11 @@
       </c>
       <c r="E11" s="21">
         <f>+[8]Main!$I$2</f>
-        <v>155.19999999999999</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="F11" s="21">
         <f>+[8]Main!$I$4</f>
-        <v>39886.399999999994</v>
+        <v>38233.89</v>
       </c>
       <c r="G11" s="21">
         <f>+[8]Main!$I$6-[8]Main!$I$5</f>
@@ -6996,7 +7090,7 @@
       </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
-        <v>39522.399999999994</v>
+        <v>37869.89</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>241</v>
@@ -7119,15 +7213,15 @@
         <v>23</v>
       </c>
       <c r="E15" s="21">
-        <f>+[30]Main!$I$2</f>
+        <f>+[31]Main!$I$2</f>
         <v>2123</v>
       </c>
       <c r="F15" s="21">
-        <f>+[30]Main!$I$4*FX!C2</f>
+        <f>+[31]Main!$I$4*FX!C2</f>
         <v>11429.0165977856</v>
       </c>
       <c r="G15" s="21">
-        <f>+([30]Main!$I$6-[30]Main!$I$5)*FX!C2</f>
+        <f>+([31]Main!$I$6-[31]Main!$I$5)*FX!C2</f>
         <v>-2117.3888000000002</v>
       </c>
       <c r="H15" s="21">
@@ -7221,15 +7315,15 @@
         <v>94</v>
       </c>
       <c r="E18" s="21">
-        <f>+[32]Main!$H$2</f>
+        <f>+[33]Main!$H$2</f>
         <v>12.11</v>
       </c>
       <c r="F18" s="21">
-        <f>+[32]Main!$H$4*FX!C3</f>
+        <f>+[33]Main!$H$4*FX!C3</f>
         <v>1601.5717199999999</v>
       </c>
       <c r="G18" s="21">
-        <f>+([32]Main!$H$6-[32]Main!$H$5)*FX!C3</f>
+        <f>+([33]Main!$H$6-[33]Main!$H$5)*FX!C3</f>
         <v>1343.7380000000003</v>
       </c>
       <c r="H18" s="21">
@@ -7271,15 +7365,15 @@
         <v>22</v>
       </c>
       <c r="E21" s="21">
-        <f>+[33]Main!$J$2</f>
+        <f>+[34]Main!$J$2</f>
         <v>21.7</v>
       </c>
       <c r="F21" s="21">
-        <f>+[33]Main!$J$4</f>
+        <f>+[34]Main!$J$4</f>
         <v>9701.7223876999997</v>
       </c>
       <c r="G21" s="21">
-        <f>+[33]Main!$J$6-[33]Main!$J$5</f>
+        <f>+[34]Main!$J$6-[34]Main!$J$5</f>
         <v>-4758</v>
       </c>
       <c r="H21" s="21">
@@ -7326,7 +7420,7 @@
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,15 +7609,15 @@
         <v>22</v>
       </c>
       <c r="E8" s="9">
-        <f>+[34]Main!$I$2</f>
+        <f>+[35]Main!$I$2</f>
         <v>50.5</v>
       </c>
       <c r="F8" s="9">
-        <f>+[34]Main!$I$4</f>
+        <f>+[35]Main!$I$4</f>
         <v>22898.106829</v>
       </c>
       <c r="G8" s="9">
-        <f>+[34]Main!$I$6-[34]Main!$I$5</f>
+        <f>+[35]Main!$I$6-[35]Main!$I$5</f>
         <v>3878</v>
       </c>
       <c r="H8" s="9">
@@ -7598,15 +7692,15 @@
         <v>22</v>
       </c>
       <c r="E11" s="9">
-        <f>+[35]Main!$I$2</f>
+        <f>+[36]Main!$I$2</f>
         <v>30.44</v>
       </c>
       <c r="F11" s="9">
-        <f>+[35]Main!$I$4</f>
+        <f>+[36]Main!$I$4</f>
         <v>17310.539416759999</v>
       </c>
       <c r="G11" s="9">
-        <f>+[35]Main!$I$6-[35]Main!$I$5</f>
+        <f>+[36]Main!$I$6-[36]Main!$I$5</f>
         <v>1122</v>
       </c>
       <c r="H11" s="9">
@@ -7658,15 +7752,15 @@
         <v>22</v>
       </c>
       <c r="E13" s="9">
-        <f>+[36]Main!$H$2</f>
+        <f>+[37]Main!$H$2</f>
         <v>41.21</v>
       </c>
       <c r="F13" s="9">
-        <f>+[36]Main!$H$4</f>
+        <f>+[37]Main!$H$4</f>
         <v>8939.4565020800001</v>
       </c>
       <c r="G13" s="9">
-        <f>+[36]Main!$H$6-[36]Main!$H$5</f>
+        <f>+[37]Main!$H$6-[37]Main!$H$5</f>
         <v>-663.44470000000001</v>
       </c>
       <c r="H13" s="9">
@@ -7695,15 +7789,15 @@
         <v>22</v>
       </c>
       <c r="E14" s="9">
-        <f>+[37]Main!$H$2</f>
+        <f>+[38]Main!$H$2</f>
         <v>52.09</v>
       </c>
       <c r="F14" s="9">
-        <f>+[37]Main!$H$4</f>
+        <f>+[38]Main!$H$4</f>
         <v>8540.3870921399994</v>
       </c>
       <c r="G14" s="9">
-        <f>+[37]Main!$H$6-[37]Main!$H$5</f>
+        <f>+[38]Main!$H$6-[38]Main!$H$5</f>
         <v>-492.94499999999999</v>
       </c>
       <c r="H14" s="9">
@@ -7773,12 +7867,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C17" t="s">
@@ -7787,12 +7881,27 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="9">
+        <f>+[39]Main!$K$2</f>
+        <v>78.55</v>
+      </c>
+      <c r="F17" s="9">
+        <f>+[39]Main!$K$4</f>
+        <v>7215.2325581999994</v>
+      </c>
+      <c r="G17" s="9">
+        <f>+[39]Main!$K$6-[39]Main!$K$5</f>
+        <v>1417</v>
+      </c>
+      <c r="H17" s="9">
+        <f>+F17+G17</f>
+        <v>8632.2325581999994</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7811,7 +7920,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7830,7 +7939,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7849,7 +7958,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7868,7 +7977,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7887,7 +7996,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7906,7 +8015,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7925,7 +8034,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7944,7 +8053,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7963,7 +8072,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7982,7 +8091,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8001,7 +8110,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8020,7 +8129,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8039,7 +8148,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8058,7 +8167,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8941,15 +9050,15 @@
         <v>22</v>
       </c>
       <c r="E78" s="9">
-        <f>+[38]Main!$H$2</f>
+        <f>+[40]Main!$H$2</f>
         <v>1.2</v>
       </c>
       <c r="F78" s="9">
-        <f>+[38]Main!$H$4</f>
+        <f>+[40]Main!$H$4</f>
         <v>112.4964828</v>
       </c>
       <c r="G78" s="9">
-        <f>+[38]Main!$H$6-[38]Main!$H$5</f>
+        <f>+[40]Main!$H$6-[40]Main!$H$5</f>
         <v>145.571</v>
       </c>
       <c r="H78" s="9">
@@ -9208,6 +9317,7 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{6C512839-983B-4910-8439-E8D08BE2B5E6}"/>
     <hyperlink ref="B8" r:id="rId8" xr:uid="{5881067F-840F-4EE3-A6A6-49A5D5599E05}"/>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AE554250-8BDC-41F6-B028-39BB218027C1}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{C10C3CEA-F36C-41AB-B9D5-0C29F9468CCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA65DB-3262-47B8-83E6-002D16EBDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE7423-050C-4908-B6C5-34EB9E3F9419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1704,22 +1704,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>1006</v>
+            <v>1253.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>429833.62</v>
+            <v>532882.92942000006</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>8371.09</v>
+            <v>8390.52</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>15916.918</v>
+            <v>14453.206</v>
           </cell>
         </row>
       </sheetData>
@@ -1997,7 +1997,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2539,22 +2539,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>428.5</v>
+            <v>559.02</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>3184844.6176525</v>
+            <v>4155288.66918858</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>79618</v>
+            <v>94565</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>42881</v>
+            <v>40152</v>
           </cell>
         </row>
       </sheetData>
@@ -3079,21 +3079,21 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>596.89919999999995</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>119751.4204961856</v>
+            <v>627.5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>7448</v>
+            <v>128905.4418725</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
+            <v>8344</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
             <v>0</v>
           </cell>
         </row>
@@ -3215,7 +3215,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3583,7 +3583,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,19 +3667,19 @@
       </c>
       <c r="E4" s="1">
         <f>+[1]Main!$I$3</f>
-        <v>1006</v>
+        <v>1253.22</v>
       </c>
       <c r="F4" s="9">
         <f>+[1]Main!$I$5</f>
-        <v>429833.62</v>
+        <v>532882.92942000006</v>
       </c>
       <c r="G4" s="9">
         <f>+[1]Main!$I$7-[1]Main!$I$6</f>
-        <v>7545.8279999999995</v>
+        <v>6062.6859999999997</v>
       </c>
       <c r="H4" s="9">
         <f>+F4+G4</f>
-        <v>437379.44799999997</v>
+        <v>538945.61542000005</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>262</v>
@@ -3815,19 +3815,19 @@
       </c>
       <c r="E8" s="1">
         <f>+[5]Main!$H$2</f>
-        <v>596.89919999999995</v>
+        <v>627.5</v>
       </c>
       <c r="F8" s="9">
-        <f>+[5]Main!$H$4*FX!C3</f>
-        <v>123343.96311107118</v>
+        <f>+[5]Main!$H$5*FX!C3</f>
+        <v>132772.605128675</v>
       </c>
       <c r="G8" s="9">
-        <f>+([5]Main!$H$6-[5]Main!$H$5)*FX!C3</f>
-        <v>-7671.4400000000005</v>
+        <f>+([5]Main!$H$7-[5]Main!$H$6)*FX!C3</f>
+        <v>-8594.32</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>115672.52311107118</v>
+        <v>124178.28512867499</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>247</v>
@@ -6872,19 +6872,19 @@
       </c>
       <c r="E5" s="21">
         <f>+[29]Main!$H$2</f>
-        <v>428.5</v>
+        <v>559.02</v>
       </c>
       <c r="F5" s="21">
         <f>+[29]Main!$H$4</f>
-        <v>3184844.6176525</v>
+        <v>4155288.66918858</v>
       </c>
       <c r="G5" s="21">
         <f>+[29]Main!$H$6-[29]Main!$H$5</f>
-        <v>-36737</v>
+        <v>-54413</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:H18" si="0">+F5+G5</f>
-        <v>3148107.6176525</v>
+        <v>4100875.66918858</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>241</v>

--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE7423-050C-4908-B6C5-34EB9E3F9419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6B836-8EA8-44AE-9095-276EA4E4F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1511,10 +1511,13 @@
     <t>RMB/USD</t>
   </si>
   <si>
-    <t>FQ425</t>
-  </si>
-  <si>
     <t>Q225</t>
+  </si>
+  <si>
+    <t>PSKY</t>
+  </si>
+  <si>
+    <t>FQ126</t>
   </si>
 </sst>
 </file>
@@ -1900,22 +1903,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="H2">
-            <v>9</v>
+            <v>11.87</v>
           </cell>
         </row>
         <row r="4">
           <cell r="H4">
-            <v>22266.675026999997</v>
+            <v>29387.416987339999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>3868</v>
+            <v>4888</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>37426</v>
+            <v>34632</v>
           </cell>
         </row>
       </sheetData>
@@ -1978,26 +1981,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="G2">
-            <v>42.79</v>
+            <v>45.96</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21236.062150490001</v>
+            <v>22817.764463160001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>1119.74</v>
+            <v>1261.9690000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>1853.135</v>
+            <v>592.70400000000006</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2141,22 +2144,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="K2">
-            <v>102.4</v>
+            <v>115.68</v>
           </cell>
         </row>
         <row r="4">
           <cell r="K4">
-            <v>184089.22224640002</v>
+            <v>207984.98580144002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>5852</v>
+            <v>5367</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>42889</v>
+            <v>36531</v>
           </cell>
         </row>
       </sheetData>
@@ -2187,26 +2190,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>145.72</v>
+            <v>184.82</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>11884.022358960001</v>
+            <v>15180.539270520001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>525.55600000000004</v>
+            <v>535.06100000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>2759.2739999999999</v>
+            <v>2749.3140000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,22 +2268,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>11.99</v>
+            <v>13.8</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>8083.1516383200005</v>
+            <v>9315</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>2673</v>
+            <v>2739</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>14507</v>
+            <v>14514</v>
           </cell>
         </row>
       </sheetData>
@@ -3196,22 +3199,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>148.77000000000001</v>
+            <v>173.3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>38233.89</v>
+            <v>43360.925609900005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>2248</v>
+            <v>1630</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>1884</v>
+            <v>400</v>
           </cell>
         </row>
       </sheetData>
@@ -3580,10 +3583,10 @@
   <dimension ref="A1:W224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,22 +3707,25 @@
       </c>
       <c r="E5" s="1">
         <f>+[2]Main!$K$2</f>
-        <v>102.4</v>
+        <v>115.68</v>
       </c>
       <c r="F5" s="9">
         <f>+[2]Main!$K$4</f>
-        <v>184089.22224640002</v>
+        <v>207984.98580144002</v>
       </c>
       <c r="G5" s="9">
         <f>+[2]Main!$K$6-[2]Main!$K$5</f>
-        <v>37037</v>
+        <v>31164</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ref="H5:H10" si="0">+F5+G5</f>
-        <v>221126.22224640002</v>
+        <v>239148.98580144002</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>476</v>
+        <v>297</v>
+      </c>
+      <c r="J5" s="12">
+        <v>45966</v>
       </c>
       <c r="S5" t="s">
         <v>265</v>
@@ -4003,25 +4009,25 @@
       </c>
       <c r="E15" s="1">
         <f>+[8]Main!$I$2</f>
-        <v>148.77000000000001</v>
+        <v>173.3</v>
       </c>
       <c r="F15" s="9">
         <f>+[8]Main!$I$4</f>
-        <v>38233.89</v>
+        <v>43360.925609900005</v>
       </c>
       <c r="G15" s="9">
         <f>+[8]Main!$I$6-[8]Main!$I$5</f>
-        <v>-364</v>
+        <v>-1230</v>
       </c>
       <c r="H15" s="9">
         <f>+F15+G15</f>
-        <v>37869.89</v>
+        <v>42130.925609900005</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J15" s="12">
-        <v>45867</v>
+        <v>45958</v>
       </c>
       <c r="S15" t="s">
         <v>267</v>
@@ -4247,24 +4253,26 @@
       </c>
       <c r="E22">
         <f>+[14]Main!$H$2</f>
-        <v>9</v>
+        <v>11.87</v>
       </c>
       <c r="F22" s="9">
         <f>+[14]Main!$H$4</f>
-        <v>22266.675026999997</v>
+        <v>29387.416987339999</v>
       </c>
       <c r="G22" s="9">
         <f>+[14]Main!$H$6-[14]Main!$H$5</f>
-        <v>33558</v>
+        <v>29744</v>
       </c>
       <c r="H22" s="9">
         <f>+F22+G22</f>
-        <v>55824.675026999997</v>
+        <v>59131.416987339995</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="J22" s="12"/>
+        <v>475</v>
+      </c>
+      <c r="J22" s="12">
+        <v>45967</v>
+      </c>
       <c r="S22" t="s">
         <v>270</v>
       </c>
@@ -4341,22 +4349,22 @@
       </c>
       <c r="E25">
         <f>+[16]Main!$G$2</f>
-        <v>42.79</v>
+        <v>45.96</v>
       </c>
       <c r="F25" s="9">
         <f>+[16]Main!$G$4</f>
-        <v>21236.062150490001</v>
+        <v>22817.764463160001</v>
       </c>
       <c r="G25" s="9">
         <f>+[16]Main!$G$6-[16]Main!$G$5</f>
-        <v>733.39499999999998</v>
+        <v>-669.26499999999999</v>
       </c>
       <c r="H25" s="9">
         <f>+F25+G25</f>
-        <v>21969.457150490001</v>
+        <v>22148.499463160002</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="S25" t="s">
         <v>268</v>
@@ -4519,22 +4527,22 @@
       </c>
       <c r="E31">
         <f>+[20]Main!$J$2</f>
-        <v>145.72</v>
+        <v>184.82</v>
       </c>
       <c r="F31" s="9">
         <f>+[20]Main!$J$4</f>
-        <v>11884.022358960001</v>
+        <v>15180.539270520001</v>
       </c>
       <c r="G31" s="9">
         <f>+[20]Main!$J$6-[20]Main!$J$5</f>
-        <v>2233.7179999999998</v>
+        <v>2214.2530000000002</v>
       </c>
       <c r="H31" s="9">
         <f>+F31+G31</f>
-        <v>14117.74035896</v>
+        <v>17394.79227052</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>247</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4716,26 +4724,26 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>476</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="E40">
         <f>+[22]Main!$I$2</f>
-        <v>11.99</v>
+        <v>13.8</v>
       </c>
       <c r="F40" s="9">
         <f>+[22]Main!$I$4</f>
-        <v>8083.1516383200005</v>
+        <v>9315</v>
       </c>
       <c r="G40" s="9">
         <f>+[22]Main!$I$6-[22]Main!$I$5</f>
-        <v>11834</v>
+        <v>11775</v>
       </c>
       <c r="H40" s="9">
         <f>+F40+G40</f>
-        <v>19917.15163832</v>
+        <v>21090</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>247</v>
@@ -7078,19 +7086,19 @@
       </c>
       <c r="E11" s="21">
         <f>+[8]Main!$I$2</f>
-        <v>148.77000000000001</v>
+        <v>173.3</v>
       </c>
       <c r="F11" s="21">
         <f>+[8]Main!$I$4</f>
-        <v>38233.89</v>
+        <v>43360.925609900005</v>
       </c>
       <c r="G11" s="21">
         <f>+[8]Main!$I$6-[8]Main!$I$5</f>
-        <v>-364</v>
+        <v>-1230</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
-        <v>37869.89</v>
+        <v>42130.925609900005</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>241</v>
@@ -7420,7 +7428,7 @@
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7573,19 +7581,19 @@
       </c>
       <c r="E7" s="9">
         <f>+[14]Main!$H$2</f>
-        <v>9</v>
+        <v>11.87</v>
       </c>
       <c r="F7" s="9">
         <f>+[14]Main!$H$4</f>
-        <v>22266.675026999997</v>
+        <v>29387.416987339999</v>
       </c>
       <c r="G7" s="9">
         <f>+[14]Main!$H$6-[14]Main!$H$5</f>
-        <v>33558</v>
+        <v>29744</v>
       </c>
       <c r="H7" s="9">
         <f>+F7+G7</f>
-        <v>55824.675026999997</v>
+        <v>59131.416987339995</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>240</v>
@@ -7827,19 +7835,19 @@
       </c>
       <c r="E15" s="9">
         <f>+[22]Main!$I$2</f>
-        <v>11.99</v>
+        <v>13.8</v>
       </c>
       <c r="F15" s="9">
         <f>+[22]Main!$I$4</f>
-        <v>8083.1516383200005</v>
+        <v>9315</v>
       </c>
       <c r="G15" s="9">
         <f>+[22]Main!$I$6-[22]Main!$I$5</f>
-        <v>11834</v>
+        <v>11775</v>
       </c>
       <c r="H15" s="9">
         <f>+F15+G15</f>
-        <v>19917.15163832</v>
+        <v>21090</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>247</v>

--- a/Entertainment.xlsx
+++ b/Entertainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6B836-8EA8-44AE-9095-276EA4E4F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75BC44-0DDF-44D1-B926-12A203C814FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
+    <workbookView xWindow="225" yWindow="3900" windowWidth="38175" windowHeight="15240" xr2:uid="{E414CA5C-78F9-4930-AC5C-325CFFA496F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1786,26 +1786,26 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>212.39</v>
+            <v>228.01</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>37485.92299734</v>
+            <v>42061.053038120001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1225</v>
+            <v>2035.1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
-            <v>3657.9</v>
+            <v>3065.1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2000,7 +2000,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2209,7 +2209,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3583,10 +3583,10 @@
   <dimension ref="A1:W224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,22 +4142,22 @@
       </c>
       <c r="E19">
         <f>+[11]Main!$L$3</f>
-        <v>212.39</v>
+        <v>228.01</v>
       </c>
       <c r="F19" s="9">
         <f>+[11]Main!$L$5</f>
-        <v>37485.92299734</v>
+        <v>42061.053038120001</v>
       </c>
       <c r="G19" s="9">
         <f>+[11]Main!$L$7-[11]Main!$L$6</f>
-        <v>2432.9</v>
+        <v>1030</v>
       </c>
       <c r="H19" s="9">
         <f>+F19+G19</f>
-        <v>39918.822997340001</v>
+        <v>43091.053038120001</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>241</v>
+        <v>477</v>
       </c>
       <c r="S19" t="s">
         <v>267</v>
@@ -7120,19 +7120,19 @@
       </c>
       <c r="E12" s="21">
         <f>+[11]Main!$L$3</f>
-        <v>212.39</v>
+        <v>228.01</v>
       </c>
       <c r="F12" s="21">
         <f>+[11]Main!$L$5</f>
-        <v>37485.92299734</v>
+        <v>42061.053038120001</v>
       </c>
       <c r="G12" s="21">
         <f>+[11]Main!$L$7-[11]Main!$L$6</f>
-        <v>2432.9</v>
+        <v>1030</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>39918.822997340001</v>
+        <v>43091.053038120001</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>241</v>
